--- a/02_Excel_data.xlsx
+++ b/02_Excel_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2660" yWindow="500" windowWidth="23300" windowHeight="13840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3900" yWindow="500" windowWidth="23300" windowHeight="13840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="otros" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -408,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -854,15 +854,12 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
-      </c>
-      <c r="C2">
-        <f>SUM(B2, 3)</f>
-        <v/>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45316.56969321759</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -913,9 +910,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>5</v>
       </c>
     </row>
